--- a/code/附件3.xlsx
+++ b/code/附件3.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xiaozhuangtongxue-my.sharepoint.com/personal/re0_xiaozhuangtongxue_onmicrosoft_com/Documents/windows/Re0/Mathematical Model/Myself/模拟============/Mathmatical-Model22A/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_DE36374325A575B281920527DE2E4D9F67B135FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8D8FC5A-E109-4F7A-B7B6-66FB8937F582}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_DE36374325A575B281920527DE2E4D9F67B135FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22559E03-611C-49CC-9F97-DEEB4CBEAA15}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -344,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +444,12 @@
       <name val="宋体"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF008013"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +510,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -926,6 +946,156 @@
         <v>2140</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.4005000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.2143000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.7152000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.9805999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1335.5350000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1165.992</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1028.876</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1091.0989999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6779.3149999999996</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7131.29</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7001.9139999999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7142.4930000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>656.36159999999995</v>
+      </c>
+      <c r="D13" s="2">
+        <v>167.83949999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>683.45579999999995</v>
+      </c>
+      <c r="F13" s="3">
+        <v>528.5018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>151.43879999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2992.7240000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>654.3383</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1655.9090000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6250</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4890</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3640</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1230</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2560</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1690</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>179.4555</v>
+      </c>
+      <c r="D17" s="2">
+        <v>113.502</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="7"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H6">
     <sortCondition ref="A3:A6"/>
